--- a/medicine/Sexualité et sexologie/Aphrodite_(film)/Aphrodite_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Aphrodite_(film)/Aphrodite_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphrodite est un film érotique soft franco-britannicco-helvéto-allemand réalisé par Robert Fuest, sorti en 1982.
 Le film est présenté comme une adaptation du roman de Pierre Louÿs, Aphrodite, paru en 1896. Il présente en fait très peu de rapport avec le roman.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce film, dont l'histoire se passe avant la Première Guerre mondiale, a pour fil directeur le vol d'un plan militaire secret.
 Dans le film, des personnages du début du XXe siècle s'amusent à jouer des scènes inspirées du roman de Pierre Louÿs, qui lui se déroule dans l'Antiquité. Les acteurs alternent les costumes du XXe siècle et de l'Antiquité.
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Aphrodite
 Réalisation : Robert Fuest
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Horst Buchholz : Harry Laird
 Valérie Kaprisky : Pauline
